--- a/Lenovo-BENIOFIT-develop-chenzj20250611.xlsx
+++ b/Lenovo-BENIOFIT-develop-chenzj20250611.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="359">
   <si>
     <t>终端-平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,6 +1432,26 @@
   </si>
   <si>
     <t>移动端部署嵌入第三方代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择产品/应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给那个硬件或 app 写帮助说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1573,21 +1593,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1719,11 +1724,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,22 +1743,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1767,54 +1757,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2097,4159 +2099,4376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="2" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="15"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="15"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="15"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="15"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="15"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="15"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="16"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="16"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="16"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="16"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="9" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="16"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="16"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="16"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="16"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="16"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="16"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="16"/>
+      <c r="I47" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="16"/>
+      <c r="I48" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="16"/>
+      <c r="I49" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="16"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="16"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="16"/>
+      <c r="I52" s="11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="16"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="16"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="16"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="16"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="16"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="16"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="16"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="9" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="16"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="16"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I63" s="16"/>
+      <c r="I63" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="16"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="16"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I67" s="16"/>
+      <c r="I67" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="16"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I69" s="16"/>
+      <c r="I69" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="16"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9" t="s">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="16"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="9">
         <v>71</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I76" s="16"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9" t="s">
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I77" s="16"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="16"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9" t="s">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I79" s="16"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I80" s="16"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="16"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="16"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="16"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="16"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+      <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="16"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="16"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="16"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="16"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+      <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="16"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9" t="s">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I90" s="16"/>
+      <c r="I90" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I91" s="16"/>
+      <c r="I91" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="9" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="16"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="9" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I93" s="16"/>
+      <c r="I93" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="9" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="16"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+      <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="8" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="16"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="16"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+      <c r="A97" s="9">
         <v>95</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="16"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9" t="s">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I98" s="16"/>
+      <c r="I98" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
+      <c r="A99" s="9">
         <v>97</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I99" s="16"/>
+      <c r="I99" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="8" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="16"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
+      <c r="A101" s="9">
         <v>99</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9" t="s">
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I101" s="16"/>
+      <c r="I101" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+      <c r="A102" s="9"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8" t="s">
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9" t="s">
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+      <c r="I103" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
         <v>101</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9" t="s">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
+      <c r="I104" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
         <v>103</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="8" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="16"/>
-    </row>
-    <row r="106" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
+      <c r="F106" s="6"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G107" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
+      <c r="H107" s="7"/>
+      <c r="I107" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
         <v>105</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="8" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E109" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F109" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
         <v>107</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8" t="s">
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9" t="s">
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
+      <c r="I110" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8" t="s">
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9" t="s">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="I111" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
         <v>109</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8" t="s">
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9" t="s">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+      <c r="I112" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9" t="s">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="I113" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
         <v>111</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8" t="s">
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9" t="s">
+      <c r="G114" s="7"/>
+      <c r="H114" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
+      <c r="I114" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9" t="s">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
+      <c r="I115" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
         <v>113</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7" t="s">
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G116" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H116" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I115" s="16"/>
-    </row>
-    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="I116" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="9" t="s">
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="16"/>
-    </row>
-    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
+      <c r="H117" s="7"/>
+      <c r="I117" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
         <v>115</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="9" t="s">
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="16"/>
-    </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
+      <c r="H118" s="7"/>
+      <c r="I118" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="9" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="16"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+      <c r="H119" s="7"/>
+      <c r="I119" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
         <v>117</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="9" t="s">
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H120" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I119" s="16"/>
-    </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
+      <c r="I120" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8" t="s">
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9" t="s">
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+      <c r="I121" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
         <v>119</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="8" t="s">
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9" t="s">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I121" s="16"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
+      <c r="I122" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F123" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="16"/>
-    </row>
-    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
         <v>121</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="8" t="s">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9" t="s">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
+      <c r="I124" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E125" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F125" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9" t="s">
+      <c r="G125" s="7"/>
+      <c r="H125" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
+      <c r="I125" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
         <v>123</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H126" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I125" s="16"/>
-    </row>
-    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
+      <c r="I126" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="9" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H127" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I126" s="16"/>
-    </row>
-    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
+      <c r="I127" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
         <v>125</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="9" t="s">
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H128" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I127" s="16"/>
-    </row>
-    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="I128" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7" t="s">
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G129" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H128" s="9" t="s">
+      <c r="H129" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I128" s="16"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
+      <c r="I129" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
         <v>127</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="9" t="s">
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H130" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I129" s="16"/>
-    </row>
-    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
+      <c r="I130" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7" t="s">
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G131" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="16"/>
-    </row>
-    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
+      <c r="H131" s="7"/>
+      <c r="I131" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
         <v>129</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="12" t="s">
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H132" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I131" s="16"/>
-    </row>
-    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
+      <c r="I132" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="9" t="s">
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I132" s="16"/>
-    </row>
-    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
+      <c r="I133" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
         <v>131</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7" t="s">
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F134" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="16"/>
-    </row>
-    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="8" t="s">
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="16"/>
-    </row>
-    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
         <v>133</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8" t="s">
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="16"/>
-    </row>
-    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7" t="s">
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E137" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F137" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="16"/>
-    </row>
-    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
         <v>135</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="8" t="s">
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="11"/>
+    </row>
+    <row r="139" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7" t="s">
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F139" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9" t="s">
+      <c r="G139" s="7"/>
+      <c r="H139" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
         <v>137</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="8" t="s">
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9" t="s">
+      <c r="G140" s="7"/>
+      <c r="H140" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14">
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="8" t="s">
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="11"/>
+    </row>
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
         <v>139</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7" t="s">
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E143" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="F143" s="6"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="8" t="s">
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
         <v>141</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7" t="s">
+      <c r="B145" s="29"/>
+      <c r="C145" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D145" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E145" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9" t="s">
+      <c r="F145" s="6"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
+      <c r="I145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="8" t="s">
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9" t="s">
+      <c r="F146" s="6"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
         <v>143</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="8" t="s">
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14">
+      <c r="F147" s="6"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="11"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="8" t="s">
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
+      <c r="F148" s="6"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="11"/>
+    </row>
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
         <v>145</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7" t="s">
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F149" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="11"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="8" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9" t="s">
+      <c r="G150" s="7"/>
+      <c r="H150" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
+      <c r="I150" s="11"/>
+    </row>
+    <row r="151" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
         <v>147</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7" t="s">
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E151" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F151" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9" t="s">
+      <c r="G151" s="7"/>
+      <c r="H151" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I149" s="16"/>
-    </row>
-    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+      <c r="I151" s="11"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
         <v>148</v>
       </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8" t="s">
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9" t="s">
+      <c r="G152" s="7"/>
+      <c r="H152" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="I152" s="11"/>
+    </row>
+    <row r="153" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
         <v>149</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9" t="s">
+      <c r="G153" s="7"/>
+      <c r="H153" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="I151" s="16"/>
-    </row>
-    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+      <c r="I153" s="11"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="8" t="s">
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="16"/>
-    </row>
-    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="11"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
         <v>151</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7" t="s">
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F155" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="16"/>
-    </row>
-    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="11"/>
+    </row>
+    <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
         <v>152</v>
       </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8" t="s">
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="16"/>
-    </row>
-    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="11"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
         <v>153</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="8" t="s">
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="16"/>
-    </row>
-    <row r="156" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="11"/>
+    </row>
+    <row r="158" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
         <v>154</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7" t="s">
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E158" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F158" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="G158" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="16"/>
-    </row>
-    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+      <c r="H158" s="7"/>
+      <c r="I158" s="11"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
         <v>155</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="9" t="s">
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H159" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I157" s="16"/>
-    </row>
-    <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
         <v>156</v>
       </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="9" t="s">
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H158" s="9"/>
-      <c r="I158" s="16"/>
-    </row>
-    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+      <c r="H160" s="7"/>
+      <c r="I160" s="11"/>
+    </row>
+    <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
         <v>157</v>
       </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="9" t="s">
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H159" s="9"/>
-      <c r="I159" s="16"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
+      <c r="H161" s="7"/>
+      <c r="I161" s="11"/>
+    </row>
+    <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
         <v>158</v>
       </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7" t="s">
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G162" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H160" s="9"/>
-      <c r="I160" s="16"/>
-    </row>
-    <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
+      <c r="H162" s="7"/>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
         <v>159</v>
       </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="9" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H161" s="9"/>
-      <c r="I161" s="16"/>
-    </row>
-    <row r="162" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="H163" s="7"/>
+      <c r="I163" s="11"/>
+    </row>
+    <row r="164" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
         <v>160</v>
       </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="9" t="s">
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H162" s="9" t="s">
+      <c r="H164" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I162" s="16"/>
-    </row>
-    <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
+      <c r="I164" s="11"/>
+    </row>
+    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
         <v>161</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="9" t="s">
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H163" s="9"/>
-      <c r="I163" s="16"/>
-    </row>
-    <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
+      <c r="H165" s="7"/>
+      <c r="I165" s="11"/>
+    </row>
+    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
         <v>162</v>
       </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="9" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H164" s="9"/>
-      <c r="I164" s="16"/>
-    </row>
-    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
+      <c r="H166" s="7"/>
+      <c r="I166" s="11"/>
+    </row>
+    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
         <v>163</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7" t="s">
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G167" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="H167" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I165" s="16"/>
-    </row>
-    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+      <c r="I167" s="11"/>
+    </row>
+    <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
         <v>164</v>
       </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="9" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H166" s="9"/>
-      <c r="I166" s="16"/>
-    </row>
-    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="H168" s="7"/>
+      <c r="I168" s="11"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
         <v>165</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F169" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="16"/>
-    </row>
-    <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="11"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
         <v>166</v>
       </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="8" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="16"/>
-    </row>
-    <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="11"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
         <v>167</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="8" t="s">
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="16"/>
-    </row>
-    <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="11"/>
+    </row>
+    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
         <v>168</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7" t="s">
+      <c r="B172" s="29"/>
+      <c r="C172" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D172" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E172" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F172" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="16"/>
-    </row>
-    <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="11"/>
+    </row>
+    <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
         <v>169</v>
       </c>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="8" t="s">
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9" t="s">
+      <c r="G173" s="7"/>
+      <c r="H173" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I171" s="16"/>
-    </row>
-    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
+      <c r="I173" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="8" t="s">
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+      <c r="F174" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9" t="s">
+      <c r="G174" s="7"/>
+      <c r="H174" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I172" s="16"/>
-    </row>
-    <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
+      <c r="I174" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
         <v>171</v>
       </c>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="8" t="s">
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9" t="s">
+      <c r="G175" s="7"/>
+      <c r="H175" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I173" s="16"/>
-    </row>
-    <row r="174" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
+      <c r="I175" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
         <v>172</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7" t="s">
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F176" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="16"/>
-    </row>
-    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
         <v>173</v>
       </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="8" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="16"/>
-    </row>
-    <row r="176" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
         <v>174</v>
       </c>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="8" t="s">
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9" t="s">
+      <c r="G178" s="7"/>
+      <c r="H178" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I176" s="16"/>
-    </row>
-    <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
+      <c r="I178" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
         <v>175</v>
       </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="8" t="s">
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G177" s="9" t="s">
+      <c r="G179" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H177" s="9"/>
-      <c r="I177" s="16"/>
-    </row>
-    <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
+      <c r="H179" s="7"/>
+      <c r="I179" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
         <v>176</v>
       </c>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="8" t="s">
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9" t="s">
+      <c r="G180" s="7"/>
+      <c r="H180" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="I178" s="16"/>
-    </row>
-    <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
+      <c r="I180" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
         <v>177</v>
       </c>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7" t="s">
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E181" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F181" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="16"/>
-    </row>
-    <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
         <v>178</v>
       </c>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="8" t="s">
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
         <v>179</v>
       </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="8" t="s">
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
+      <c r="F183" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9" t="s">
+      <c r="G183" s="7"/>
+      <c r="H183" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I181" s="16"/>
-    </row>
-    <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="14">
+      <c r="I183" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
         <v>180</v>
       </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="8" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9" t="s">
+      <c r="G184" s="7"/>
+      <c r="H184" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I182" s="16"/>
-    </row>
-    <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
+      <c r="I184" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
         <v>181</v>
       </c>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7" t="s">
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F185" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="16"/>
-    </row>
-    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14">
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
         <v>182</v>
       </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="8" t="s">
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="16"/>
-    </row>
-    <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14">
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9">
         <v>183</v>
       </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="8" t="s">
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9" t="s">
+      <c r="G187" s="7"/>
+      <c r="H187" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I185" s="16"/>
-    </row>
-    <row r="186" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14">
+      <c r="I187" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9">
         <v>184</v>
       </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="8" t="s">
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="9" t="s">
+      <c r="G188" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H186" s="9"/>
-      <c r="I186" s="16"/>
-    </row>
-    <row r="187" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
+      <c r="H188" s="7"/>
+      <c r="I188" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
         <v>185</v>
       </c>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="8" t="s">
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9" t="s">
+      <c r="G189" s="7"/>
+      <c r="H189" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I187" s="16"/>
-    </row>
-    <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14">
+      <c r="I189" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
         <v>186</v>
       </c>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7" t="s">
+      <c r="B190" s="29"/>
+      <c r="C190" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="D188" s="35" t="s">
+      <c r="D190" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E190" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F188" s="8"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9" t="s">
+      <c r="F190" s="6"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I188" s="16"/>
-    </row>
-    <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14">
+      <c r="I190" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9">
         <v>187</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="8" t="s">
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F189" s="8"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="16"/>
-    </row>
-    <row r="190" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
+      <c r="F191" s="6"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9">
         <v>188</v>
       </c>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="8" t="s">
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="16"/>
-    </row>
-    <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="14">
+      <c r="F192" s="6"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9">
         <v>189</v>
       </c>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="8" t="s">
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="16"/>
-    </row>
-    <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14">
+      <c r="F193" s="6"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9">
         <v>190</v>
       </c>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="8" t="s">
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="16"/>
-    </row>
-    <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14">
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9">
         <v>191</v>
       </c>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="8" t="s">
+      <c r="B195" s="29"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="16"/>
-    </row>
-    <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14">
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9">
         <v>192</v>
       </c>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="8" t="s">
+      <c r="B196" s="29"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9" t="s">
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I194" s="16"/>
-    </row>
-    <row r="195" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14">
+      <c r="I196" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9">
         <v>193</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7" t="s">
+      <c r="B197" s="29"/>
+      <c r="C197" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D197" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9" t="s">
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="I195" s="16"/>
-    </row>
-    <row r="196" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14">
+      <c r="I197" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
         <v>194</v>
       </c>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="8" t="s">
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9" t="s">
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="I196" s="16"/>
-    </row>
-    <row r="197" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14">
+      <c r="I198" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
         <v>195</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="8" t="s">
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="16"/>
-    </row>
-    <row r="198" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14">
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9">
         <v>196</v>
       </c>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="8" t="s">
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="16"/>
-    </row>
-    <row r="199" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14">
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9">
         <v>197</v>
       </c>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7" t="s">
+      <c r="B201" s="29"/>
+      <c r="C201" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D201" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E201" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F199" s="8"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="9" t="s">
+      <c r="F201" s="6"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="I199" s="16"/>
-    </row>
-    <row r="200" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14">
+      <c r="I201" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="9">
         <v>198</v>
       </c>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="8" t="s">
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F200" s="8"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="16"/>
-    </row>
-    <row r="201" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="14">
+      <c r="F202" s="6"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9">
         <v>199</v>
       </c>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="8" t="s">
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="I201" s="16"/>
-    </row>
-    <row r="202" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14">
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9">
         <v>200</v>
       </c>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="8" t="s">
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-      <c r="I202" s="16"/>
-    </row>
-    <row r="203" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14">
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="9">
         <v>201</v>
       </c>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="8" t="s">
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="9"/>
-      <c r="H203" s="9"/>
-      <c r="I203" s="16"/>
-    </row>
-    <row r="204" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14">
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="9">
         <v>202</v>
       </c>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7" t="s">
+      <c r="B206" s="29"/>
+      <c r="C206" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D206" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E206" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F204" s="8" t="s">
+      <c r="F206" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G204" s="9"/>
-      <c r="H204" s="9" t="s">
+      <c r="G206" s="7"/>
+      <c r="H206" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I204" s="16"/>
-    </row>
-    <row r="205" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14">
+      <c r="I206" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9">
         <v>203</v>
       </c>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="8" t="s">
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G205" s="9"/>
-      <c r="H205" s="9"/>
-      <c r="I205" s="16"/>
-    </row>
-    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14">
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9">
         <v>204</v>
       </c>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="8" t="s">
+      <c r="B208" s="29"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G206" s="9"/>
-      <c r="H206" s="9"/>
-      <c r="I206" s="16"/>
-    </row>
-    <row r="207" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="14">
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9">
         <v>205</v>
       </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="8" t="s">
+      <c r="B209" s="29"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
+      <c r="F209" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9"/>
-      <c r="I207" s="16"/>
-    </row>
-    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14">
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9">
         <v>206</v>
       </c>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="8" t="s">
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="16"/>
-    </row>
-    <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14">
+      <c r="F210" s="6"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9">
         <v>207</v>
       </c>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="8" t="s">
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F209" s="8"/>
-      <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-      <c r="I209" s="16"/>
-    </row>
-    <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14">
+      <c r="F211" s="6"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="11"/>
+    </row>
+    <row r="212" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
         <v>208</v>
       </c>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7" t="s">
+      <c r="B212" s="29"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E212" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-      <c r="I210" s="16"/>
-    </row>
-    <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14">
+      <c r="F212" s="6"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
         <v>209</v>
       </c>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="8" t="s">
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F211" s="8"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-      <c r="I211" s="16"/>
-    </row>
-    <row r="212" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14">
+      <c r="F213" s="6"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9">
         <v>210</v>
       </c>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="8" t="s">
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9" t="s">
+      <c r="F214" s="6"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="I212" s="16"/>
-    </row>
-    <row r="213" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14">
+      <c r="I214" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
         <v>211</v>
       </c>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7" t="s">
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E215" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F213" s="8" t="s">
+      <c r="F215" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9" t="s">
+      <c r="G215" s="7"/>
+      <c r="H215" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="I213" s="16"/>
-    </row>
-    <row r="214" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14">
+      <c r="I215" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9">
         <v>212</v>
       </c>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="8" t="s">
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-      <c r="I214" s="16"/>
-    </row>
-    <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="14">
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9">
         <v>213</v>
       </c>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="8" t="s">
+      <c r="B217" s="29"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="29"/>
+      <c r="F217" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="16"/>
-    </row>
-    <row r="216" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14">
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9">
         <v>214</v>
       </c>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7" t="s">
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F216" s="8" t="s">
+      <c r="F218" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="16"/>
-    </row>
-    <row r="217" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14">
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="11"/>
+    </row>
+    <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9">
         <v>215</v>
       </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="8" t="s">
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="16"/>
-    </row>
-    <row r="218" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14">
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="11"/>
+    </row>
+    <row r="220" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9">
         <v>216</v>
       </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="8" t="s">
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
+      <c r="F220" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G218" s="9"/>
-      <c r="H218" s="9" t="s">
+      <c r="G220" s="7"/>
+      <c r="H220" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="I218" s="16"/>
-    </row>
-    <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14">
+      <c r="I220" s="11"/>
+    </row>
+    <row r="221" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9">
         <v>217</v>
       </c>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7" t="s">
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F219" s="8" t="s">
+      <c r="F221" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G219" s="9"/>
-      <c r="H219" s="9" t="s">
+      <c r="G221" s="7"/>
+      <c r="H221" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="I219" s="16"/>
-    </row>
-    <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14">
+      <c r="I221" s="11"/>
+    </row>
+    <row r="222" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9">
         <v>218</v>
       </c>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="8" t="s">
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29"/>
+      <c r="F222" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G220" s="9"/>
-      <c r="H220" s="9"/>
-      <c r="I220" s="16"/>
-    </row>
-    <row r="221" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="14">
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="11"/>
+    </row>
+    <row r="223" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9">
         <v>219</v>
       </c>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7" t="s">
+      <c r="B223" s="29"/>
+      <c r="C223" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D223" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="E221" s="8" t="s">
+      <c r="E223" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F221" s="8"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9" t="s">
+      <c r="F223" s="6"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I221" s="16"/>
-    </row>
-    <row r="222" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="14">
+      <c r="I223" s="11"/>
+    </row>
+    <row r="224" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9">
         <v>220</v>
       </c>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="8" t="s">
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-      <c r="I222" s="16"/>
-    </row>
-    <row r="223" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="14">
+      <c r="F224" s="6"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="11"/>
+    </row>
+    <row r="225" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
         <v>221</v>
       </c>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7" t="s">
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E225" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F223" s="8"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-      <c r="I223" s="16"/>
-    </row>
-    <row r="224" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="14">
+      <c r="F225" s="6"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="11"/>
+    </row>
+    <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9">
         <v>222</v>
       </c>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="8" t="s">
+      <c r="B226" s="29"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F224" s="8"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
-      <c r="I224" s="16"/>
-    </row>
-    <row r="225" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="14">
+      <c r="F226" s="6"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="11"/>
+    </row>
+    <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
         <v>223</v>
       </c>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="8" t="s">
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F225" s="8"/>
-      <c r="G225" s="9"/>
-      <c r="H225" s="9" t="s">
+      <c r="F227" s="6"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I225" s="16"/>
-    </row>
-    <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="14">
+      <c r="I227" s="11"/>
+    </row>
+    <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="9">
         <v>224</v>
       </c>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="8" t="s">
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F226" s="8"/>
-      <c r="G226" s="9"/>
-      <c r="H226" s="9"/>
-      <c r="I226" s="16"/>
-    </row>
-    <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14">
+      <c r="F228" s="6"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="11"/>
+    </row>
+    <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
         <v>225</v>
       </c>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7" t="s">
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E229" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F227" s="8"/>
-      <c r="G227" s="9"/>
-      <c r="H227" s="9"/>
-      <c r="I227" s="16"/>
-    </row>
-    <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="14">
+      <c r="F229" s="6"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="11"/>
+    </row>
+    <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="9">
         <v>226</v>
       </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="8" t="s">
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F228" s="8"/>
-      <c r="G228" s="9"/>
-      <c r="H228" s="9"/>
-      <c r="I228" s="16"/>
-    </row>
-    <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14">
+      <c r="F230" s="6"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="11"/>
+    </row>
+    <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9">
         <v>227</v>
       </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="8" t="s">
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F229" s="8"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="9"/>
-      <c r="I229" s="16"/>
-    </row>
-    <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14">
+      <c r="F231" s="6"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="11"/>
+    </row>
+    <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9">
         <v>228</v>
       </c>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7" t="s">
+      <c r="B232" s="29"/>
+      <c r="C232" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D232" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E232" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F230" s="8"/>
-      <c r="G230" s="9"/>
-      <c r="H230" s="9"/>
-      <c r="I230" s="16"/>
-    </row>
-    <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="14">
+      <c r="F232" s="6"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="11"/>
+    </row>
+    <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="9">
         <v>229</v>
       </c>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="8" t="s">
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F231" s="8"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="9"/>
-      <c r="I231" s="16"/>
-    </row>
-    <row r="232" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14">
+      <c r="F233" s="6"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="9">
         <v>230</v>
       </c>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="8" t="s">
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F232" s="8"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9" t="s">
+      <c r="F234" s="6"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I232" s="16"/>
-    </row>
-    <row r="233" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14">
+      <c r="I234" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="9">
         <v>231</v>
       </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7" t="s">
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E233" s="8" t="s">
+      <c r="E235" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F233" s="8"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9" t="s">
+      <c r="F235" s="6"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I233" s="16"/>
-    </row>
-    <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14">
+      <c r="I235" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="9">
         <v>232</v>
       </c>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="8" t="s">
+      <c r="B236" s="29"/>
+      <c r="C236" s="29"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F234" s="8"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="16"/>
-    </row>
-    <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14">
+      <c r="F236" s="6"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="9">
         <v>233</v>
       </c>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="8" t="s">
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F235" s="8"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="16"/>
-    </row>
-    <row r="236" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14">
+      <c r="F237" s="6"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="9">
         <v>234</v>
       </c>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7" t="s">
+      <c r="B238" s="29"/>
+      <c r="C238" s="29"/>
+      <c r="D238" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="E238" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F236" s="8"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9" t="s">
+      <c r="F238" s="6"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="I236" s="16"/>
-    </row>
-    <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="14">
+      <c r="I238" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="9">
         <v>235</v>
       </c>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="8" t="s">
+      <c r="B239" s="29"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F237" s="8"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="16"/>
-    </row>
-    <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14">
+      <c r="F239" s="6"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="9">
         <v>236</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="8" t="s">
+      <c r="B240" s="29"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F238" s="8"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-      <c r="I238" s="16"/>
-    </row>
-    <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14">
+      <c r="F240" s="6"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="9">
         <v>237</v>
       </c>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7" t="s">
+      <c r="B241" s="29"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E241" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F239" s="8"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="I239" s="16"/>
-    </row>
-    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="14">
+      <c r="F241" s="6"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="9">
         <v>238</v>
       </c>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="8" t="s">
+      <c r="B242" s="29"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F240" s="8"/>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="16"/>
-    </row>
-    <row r="241" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14">
+      <c r="F242" s="6"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9">
         <v>239</v>
       </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="8" t="s">
+      <c r="B243" s="29"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F241" s="8"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9" t="s">
+      <c r="F243" s="6"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I241" s="16"/>
-    </row>
-    <row r="242" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="14">
+      <c r="I243" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="9">
         <v>240</v>
       </c>
-      <c r="B242" s="17"/>
-      <c r="C242" s="17"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="18" t="s">
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="F242" s="18"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19" t="s">
+      <c r="F244" s="12"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="I242" s="20"/>
+      <c r="I244" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D188:D191"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="D233:D235"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="D239:D242"/>
-    <mergeCell ref="C230:C242"/>
-    <mergeCell ref="B28:B242"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="D213:D220"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="D223:D226"/>
-    <mergeCell ref="D227:D229"/>
-    <mergeCell ref="C221:C229"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="C143:C169"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="D170:D178"/>
-    <mergeCell ref="D179:D187"/>
-    <mergeCell ref="E179:E182"/>
-    <mergeCell ref="E183:E187"/>
-    <mergeCell ref="C170:C187"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="F160:F164"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="E156:E166"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="D156:D169"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="D149:D155"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="C188:C194"/>
-    <mergeCell ref="D124:D135"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="D136:D140"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="C83:C142"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="E124:E132"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="F115:F119"/>
-    <mergeCell ref="E108:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D108:D123"/>
-    <mergeCell ref="C62:C82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="D88:D95"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
+  <mergeCells count="107">
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E96:E97"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="D53:D61"/>
@@ -6274,9 +6493,84 @@
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="C199:C203"/>
-    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="C62:C82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="E125:E133"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="D101:D108"/>
+    <mergeCell ref="F116:F120"/>
+    <mergeCell ref="E109:E122"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D109:D124"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E151:E154"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="D151:D157"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C190:C196"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C83:C144"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="E185:E189"/>
+    <mergeCell ref="C172:C189"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="F162:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="E158:E168"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="D158:D171"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="D238:D240"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="D241:D244"/>
+    <mergeCell ref="C232:C244"/>
+    <mergeCell ref="B28:B244"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="D215:D222"/>
+    <mergeCell ref="C206:C222"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="D225:D228"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="C223:C231"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="D206:D211"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E218:E220"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="C145:C171"/>
+    <mergeCell ref="E176:E180"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="D172:D180"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lenovo-BENIOFIT-develop-chenzj20250611.xlsx
+++ b/Lenovo-BENIOFIT-develop-chenzj20250611.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="358">
   <si>
     <t>终端-平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,10 +1436,6 @@
   </si>
   <si>
     <t>第一期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1780,6 +1776,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,16 +1806,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,18 +1814,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2102,8 +2098,8 @@
   <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
+      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2121,17 +2117,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -2166,10 +2162,10 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2185,8 +2181,8 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2200,8 +2196,8 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2215,8 +2211,8 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2226,7 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2243,7 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +2258,7 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2277,8 +2273,8 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2296,9 +2292,9 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2315,9 +2311,9 @@
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2330,9 +2326,9 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2345,9 +2341,9 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
@@ -2360,9 +2356,9 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="6" t="s">
         <v>27</v>
       </c>
@@ -2375,9 +2371,9 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
@@ -2390,10 +2386,10 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2407,10 +2403,10 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="6" t="s">
         <v>30</v>
       </c>
@@ -2422,10 +2418,10 @@
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
@@ -2437,10 +2433,10 @@
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
@@ -2454,10 +2450,10 @@
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2469,9 +2465,9 @@
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="29" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2486,9 +2482,9 @@
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
@@ -2501,9 +2497,9 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="6" t="s">
         <v>38</v>
       </c>
@@ -2516,8 +2512,8 @@
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="6" t="s">
         <v>351</v>
       </c>
@@ -2531,8 +2527,8 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="6" t="s">
         <v>352</v>
       </c>
@@ -2546,8 +2542,8 @@
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
@@ -2563,13 +2559,13 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -2578,30 +2574,34 @@
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2610,45 +2610,51 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2657,48 +2663,54 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="23" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2706,16 +2718,18 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="6" t="s">
         <v>49</v>
       </c>
@@ -2723,31 +2737,35 @@
       <c r="H37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2755,49 +2773,55 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23" t="s">
         <v>53</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -2816,9 +2840,9 @@
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="6" t="s">
         <v>69</v>
       </c>
@@ -2833,9 +2857,9 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="6" t="s">
         <v>53</v>
       </c>
@@ -2852,9 +2876,9 @@
       <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2873,9 +2897,9 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="6" t="s">
         <v>67</v>
       </c>
@@ -2892,11 +2916,11 @@
       <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -2907,17 +2931,15 @@
       <c r="H47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="6" t="s">
         <v>53</v>
       </c>
@@ -2926,17 +2948,15 @@
       <c r="H48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -2949,17 +2969,15 @@
       <c r="H49" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
@@ -2968,18 +2986,16 @@
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23" t="s">
         <v>83</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -2987,18 +3003,16 @@
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="6" t="s">
         <v>88</v>
       </c>
@@ -3008,17 +3022,15 @@
       <c r="H52" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
         <v>77</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -3035,10 +3047,10 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3054,10 +3066,10 @@
       <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="6" t="s">
         <v>94</v>
       </c>
@@ -3071,10 +3083,10 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="6" t="s">
         <v>96</v>
       </c>
@@ -3088,10 +3100,10 @@
       <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
@@ -3105,10 +3117,10 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="6" t="s">
         <v>98</v>
       </c>
@@ -3120,10 +3132,10 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3137,11 +3149,11 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -3154,11 +3166,11 @@
       <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="7" t="s">
         <v>104</v>
       </c>
@@ -3169,14 +3181,14 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="23" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -3192,10 +3204,10 @@
       <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="6" t="s">
         <v>114</v>
       </c>
@@ -3211,10 +3223,10 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -3230,10 +3242,10 @@
       <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="6" t="s">
         <v>114</v>
       </c>
@@ -3249,10 +3261,10 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23" t="s">
         <v>110</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -3268,10 +3280,10 @@
       <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="6" t="s">
         <v>114</v>
       </c>
@@ -3287,10 +3299,10 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23" t="s">
         <v>111</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3306,10 +3318,10 @@
       <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="6" t="s">
         <v>114</v>
       </c>
@@ -3325,10 +3337,10 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29" t="s">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23" t="s">
         <v>112</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -3344,10 +3356,10 @@
       <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="6" t="s">
         <v>114</v>
       </c>
@@ -3363,12 +3375,12 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -3382,10 +3394,10 @@
       <c r="A73" s="9">
         <v>71</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="6" t="s">
         <v>114</v>
       </c>
@@ -3399,10 +3411,10 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3418,10 +3430,10 @@
       <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="6" t="s">
         <v>53</v>
       </c>
@@ -3435,10 +3447,10 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3452,12 +3464,12 @@
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F77" s="6"/>
@@ -3471,10 +3483,10 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="6" t="s">
         <v>133</v>
       </c>
@@ -3488,10 +3500,10 @@
       <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -3507,10 +3519,10 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="6" t="s">
         <v>96</v>
       </c>
@@ -3524,10 +3536,10 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="6" t="s">
         <v>137</v>
       </c>
@@ -3539,10 +3551,10 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="6" t="s">
         <v>138</v>
       </c>
@@ -3554,11 +3566,11 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="23" t="s">
         <v>139</v>
       </c>
       <c r="E83" s="6" t="s">
@@ -3575,9 +3587,9 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="6" t="s">
         <v>141</v>
       </c>
@@ -3592,9 +3604,9 @@
       <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="6" t="s">
         <v>142</v>
       </c>
@@ -3609,9 +3621,9 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="6" t="s">
         <v>143</v>
       </c>
@@ -3626,9 +3638,9 @@
       <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="6" t="s">
         <v>144</v>
       </c>
@@ -3643,12 +3655,12 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29" t="s">
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F88" s="6"/>
@@ -3662,10 +3674,10 @@
       <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="6" t="s">
         <v>53</v>
       </c>
@@ -3681,10 +3693,10 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29" t="s">
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23" t="s">
         <v>146</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -3702,11 +3714,11 @@
       <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G91" s="7" t="s">
@@ -3723,11 +3735,11 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
       <c r="G92" s="7" t="s">
         <v>131</v>
       </c>
@@ -3740,11 +3752,11 @@
       <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
       <c r="G93" s="7" t="s">
         <v>151</v>
       </c>
@@ -3759,11 +3771,11 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="7" t="s">
         <v>153</v>
       </c>
@@ -3774,9 +3786,9 @@
       <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="6" t="s">
         <v>156</v>
       </c>
@@ -3789,12 +3801,12 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="24" t="s">
         <v>113</v>
       </c>
       <c r="F96" s="6"/>
@@ -3808,10 +3820,10 @@
       <c r="A97" s="9">
         <v>95</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="28"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="25"/>
       <c r="F97" s="6" t="s">
         <v>53</v>
       </c>
@@ -3827,10 +3839,10 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="26" t="s">
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="24" t="s">
         <v>114</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -3848,10 +3860,10 @@
       <c r="A99" s="9">
         <v>97</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="28"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="6" t="s">
         <v>158</v>
       </c>
@@ -3867,27 +3879,29 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="6" t="s">
         <v>156</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="11"/>
+      <c r="I100" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>99</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -3903,16 +3917,16 @@
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>354</v>
@@ -3922,10 +3936,10 @@
       <c r="A103" s="9">
         <v>100</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="6" t="s">
         <v>92</v>
       </c>
@@ -3941,10 +3955,10 @@
       <c r="A104" s="9">
         <v>101</v>
       </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="6" t="s">
         <v>158</v>
       </c>
@@ -3960,10 +3974,10 @@
       <c r="A105" s="9">
         <v>102</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="6" t="s">
         <v>167</v>
       </c>
@@ -3977,9 +3991,9 @@
       <c r="A106" s="9">
         <v>103</v>
       </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="E106" s="6" t="s">
         <v>113</v>
       </c>
@@ -3994,9 +4008,9 @@
       <c r="A107" s="9">
         <v>104</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
         <v>53</v>
@@ -4013,9 +4027,9 @@
       <c r="A108" s="9">
         <v>105</v>
       </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="E108" s="6" t="s">
         <v>156</v>
       </c>
@@ -4030,12 +4044,12 @@
       <c r="A109" s="9">
         <v>106</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -4051,10 +4065,10 @@
       <c r="A110" s="9">
         <v>107</v>
       </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="6" t="s">
         <v>171</v>
       </c>
@@ -4070,10 +4084,10 @@
       <c r="A111" s="9">
         <v>108</v>
       </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
       <c r="F111" s="6" t="s">
         <v>173</v>
       </c>
@@ -4089,10 +4103,10 @@
       <c r="A112" s="9">
         <v>109</v>
       </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
       <c r="F112" s="6" t="s">
         <v>175</v>
       </c>
@@ -4108,10 +4122,10 @@
       <c r="A113" s="9">
         <v>110</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="6" t="s">
         <v>177</v>
       </c>
@@ -4127,10 +4141,10 @@
       <c r="A114" s="9">
         <v>111</v>
       </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
       <c r="F114" s="6" t="s">
         <v>180</v>
       </c>
@@ -4146,10 +4160,10 @@
       <c r="A115" s="9">
         <v>112</v>
       </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
       <c r="F115" s="6" t="s">
         <v>181</v>
       </c>
@@ -4165,11 +4179,11 @@
       <c r="A116" s="9">
         <v>113</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23" t="s">
         <v>183</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -4186,11 +4200,11 @@
       <c r="A117" s="9">
         <v>114</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
       <c r="G117" s="7" t="s">
         <v>185</v>
       </c>
@@ -4203,11 +4217,11 @@
       <c r="A118" s="9">
         <v>115</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
       <c r="G118" s="7" t="s">
         <v>186</v>
       </c>
@@ -4220,11 +4234,11 @@
       <c r="A119" s="9">
         <v>116</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
       <c r="G119" s="7" t="s">
         <v>187</v>
       </c>
@@ -4237,11 +4251,11 @@
       <c r="A120" s="9">
         <v>117</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
       <c r="G120" s="7" t="s">
         <v>188</v>
       </c>
@@ -4256,10 +4270,10 @@
       <c r="A121" s="9">
         <v>118</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
       <c r="F121" s="6" t="s">
         <v>196</v>
       </c>
@@ -4275,10 +4289,10 @@
       <c r="A122" s="9">
         <v>119</v>
       </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
       <c r="F122" s="6" t="s">
         <v>190</v>
       </c>
@@ -4286,18 +4300,16 @@
       <c r="H122" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I122" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>120</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29" t="s">
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -4313,10 +4325,10 @@
       <c r="A124" s="9">
         <v>121</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
       <c r="F124" s="6" t="s">
         <v>192</v>
       </c>
@@ -4332,12 +4344,12 @@
       <c r="A125" s="9">
         <v>122</v>
       </c>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -4355,11 +4367,11 @@
       <c r="A126" s="9">
         <v>123</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29" t="s">
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23" t="s">
         <v>204</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -4376,11 +4388,11 @@
       <c r="A127" s="9">
         <v>124</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
       <c r="G127" s="7" t="s">
         <v>200</v>
       </c>
@@ -4395,11 +4407,11 @@
       <c r="A128" s="9">
         <v>125</v>
       </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
       <c r="G128" s="7" t="s">
         <v>202</v>
       </c>
@@ -4414,11 +4426,11 @@
       <c r="A129" s="9">
         <v>126</v>
       </c>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29" t="s">
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
         <v>205</v>
       </c>
       <c r="G129" s="7" t="s">
@@ -4435,11 +4447,11 @@
       <c r="A130" s="9">
         <v>127</v>
       </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
       <c r="G130" s="7" t="s">
         <v>207</v>
       </c>
@@ -4454,11 +4466,11 @@
       <c r="A131" s="9">
         <v>128</v>
       </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29" t="s">
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23" t="s">
         <v>210</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -4473,12 +4485,12 @@
       <c r="A132" s="9">
         <v>129</v>
       </c>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="32" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="29" t="s">
         <v>211</v>
       </c>
       <c r="H132" s="7" t="s">
@@ -4492,12 +4504,12 @@
       <c r="A133" s="9">
         <v>130</v>
       </c>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="32"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="29"/>
       <c r="H133" s="7" t="s">
         <v>214</v>
       </c>
@@ -4509,10 +4521,10 @@
       <c r="A134" s="9">
         <v>131</v>
       </c>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29" t="s">
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -4528,10 +4540,10 @@
       <c r="A135" s="9">
         <v>132</v>
       </c>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
       <c r="F135" s="6" t="s">
         <v>68</v>
       </c>
@@ -4545,10 +4557,10 @@
       <c r="A136" s="9">
         <v>133</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
       <c r="F136" s="6" t="s">
         <v>53</v>
       </c>
@@ -4562,12 +4574,12 @@
       <c r="A137" s="9">
         <v>134</v>
       </c>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E137" s="23" t="s">
         <v>218</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -4581,10 +4593,10 @@
       <c r="A138" s="9">
         <v>135</v>
       </c>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
       <c r="F138" s="6" t="s">
         <v>219</v>
       </c>
@@ -4596,10 +4608,10 @@
       <c r="A139" s="9">
         <v>136</v>
       </c>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23" t="s">
         <v>220</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -4615,10 +4627,10 @@
       <c r="A140" s="9">
         <v>137</v>
       </c>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
       <c r="F140" s="6" t="s">
         <v>53</v>
       </c>
@@ -4632,10 +4644,10 @@
       <c r="A141" s="9">
         <v>138</v>
       </c>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="6" t="s">
         <v>68</v>
       </c>
@@ -4645,10 +4657,10 @@
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
       <c r="D142" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -4662,9 +4674,9 @@
       <c r="A143" s="9">
         <v>139</v>
       </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29" t="s">
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23" t="s">
         <v>224</v>
       </c>
       <c r="E143" s="6" t="s">
@@ -4681,9 +4693,9 @@
       <c r="A144" s="9">
         <v>140</v>
       </c>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="6" t="s">
         <v>226</v>
       </c>
@@ -4698,11 +4710,11 @@
       <c r="A145" s="9">
         <v>141</v>
       </c>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29" t="s">
+      <c r="B145" s="23"/>
+      <c r="C145" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D145" s="29" t="s">
+      <c r="D145" s="23" t="s">
         <v>228</v>
       </c>
       <c r="E145" s="6" t="s">
@@ -4713,15 +4725,17 @@
       <c r="H145" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I145" s="11"/>
+      <c r="I145" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>142</v>
       </c>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
       <c r="E146" s="6" t="s">
         <v>229</v>
       </c>
@@ -4730,46 +4744,52 @@
       <c r="H146" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I146" s="11"/>
+      <c r="I146" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>143</v>
       </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
       <c r="E147" s="6" t="s">
         <v>230</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="11"/>
+      <c r="I147" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>144</v>
       </c>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
       <c r="E148" s="6" t="s">
         <v>231</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="11"/>
+      <c r="I148" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>145</v>
       </c>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -4777,16 +4797,18 @@
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="11"/>
+      <c r="I149" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>146</v>
       </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
       <c r="F150" s="6" t="s">
         <v>234</v>
       </c>
@@ -4794,18 +4816,20 @@
       <c r="H150" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I150" s="11"/>
+      <c r="I150" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>147</v>
       </c>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29" t="s">
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="29" t="s">
+      <c r="E151" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -4821,10 +4845,10 @@
       <c r="A152" s="9">
         <v>148</v>
       </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
       <c r="F152" s="6" t="s">
         <v>239</v>
       </c>
@@ -4838,10 +4862,10 @@
       <c r="A153" s="9">
         <v>149</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
       <c r="F153" s="6" t="s">
         <v>137</v>
       </c>
@@ -4855,10 +4879,10 @@
       <c r="A154" s="9">
         <v>150</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
       <c r="F154" s="6" t="s">
         <v>241</v>
       </c>
@@ -4870,10 +4894,10 @@
       <c r="A155" s="9">
         <v>151</v>
       </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29" t="s">
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -4887,10 +4911,10 @@
       <c r="A156" s="9">
         <v>152</v>
       </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
       <c r="F156" s="6" t="s">
         <v>244</v>
       </c>
@@ -4902,10 +4926,10 @@
       <c r="A157" s="9">
         <v>153</v>
       </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
       <c r="F157" s="6" t="s">
         <v>113</v>
       </c>
@@ -4917,15 +4941,15 @@
       <c r="A158" s="9">
         <v>154</v>
       </c>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29" t="s">
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E158" s="29" t="s">
+      <c r="E158" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="F158" s="29" t="s">
+      <c r="F158" s="23" t="s">
         <v>247</v>
       </c>
       <c r="G158" s="7" t="s">
@@ -4938,11 +4962,11 @@
       <c r="A159" s="9">
         <v>155</v>
       </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
       <c r="G159" s="7" t="s">
         <v>249</v>
       </c>
@@ -4955,11 +4979,11 @@
       <c r="A160" s="9">
         <v>156</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
       <c r="G160" s="7" t="s">
         <v>251</v>
       </c>
@@ -4970,11 +4994,11 @@
       <c r="A161" s="9">
         <v>157</v>
       </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
       <c r="G161" s="7" t="s">
         <v>252</v>
       </c>
@@ -4985,11 +5009,11 @@
       <c r="A162" s="9">
         <v>158</v>
       </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29" t="s">
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23" t="s">
         <v>253</v>
       </c>
       <c r="G162" s="7" t="s">
@@ -5002,11 +5026,11 @@
       <c r="A163" s="9">
         <v>159</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
       <c r="G163" s="7" t="s">
         <v>228</v>
       </c>
@@ -5017,11 +5041,11 @@
       <c r="A164" s="9">
         <v>160</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
       <c r="G164" s="7" t="s">
         <v>254</v>
       </c>
@@ -5034,11 +5058,11 @@
       <c r="A165" s="9">
         <v>161</v>
       </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
       <c r="G165" s="7" t="s">
         <v>256</v>
       </c>
@@ -5049,11 +5073,11 @@
       <c r="A166" s="9">
         <v>162</v>
       </c>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
       <c r="G166" s="7" t="s">
         <v>257</v>
       </c>
@@ -5064,11 +5088,11 @@
       <c r="A167" s="9">
         <v>163</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29" t="s">
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23" t="s">
         <v>258</v>
       </c>
       <c r="G167" s="7" t="s">
@@ -5083,11 +5107,11 @@
       <c r="A168" s="9">
         <v>164</v>
       </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
       <c r="G168" s="7" t="s">
         <v>260</v>
       </c>
@@ -5098,10 +5122,10 @@
       <c r="A169" s="9">
         <v>165</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29" t="s">
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -5115,10 +5139,10 @@
       <c r="A170" s="9">
         <v>166</v>
       </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
       <c r="F170" s="6" t="s">
         <v>68</v>
       </c>
@@ -5130,10 +5154,10 @@
       <c r="A171" s="9">
         <v>167</v>
       </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
       <c r="F171" s="6" t="s">
         <v>261</v>
       </c>
@@ -5145,14 +5169,14 @@
       <c r="A172" s="9">
         <v>168</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29" t="s">
+      <c r="B172" s="23"/>
+      <c r="C172" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D172" s="29" t="s">
+      <c r="D172" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E172" s="29" t="s">
+      <c r="E172" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -5166,10 +5190,10 @@
       <c r="A173" s="9">
         <v>169</v>
       </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
       <c r="F173" s="6" t="s">
         <v>265</v>
       </c>
@@ -5185,10 +5209,10 @@
       <c r="A174" s="9">
         <v>170</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
       <c r="F174" s="6" t="s">
         <v>267</v>
       </c>
@@ -5204,10 +5228,10 @@
       <c r="A175" s="9">
         <v>171</v>
       </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
       <c r="F175" s="6" t="s">
         <v>83</v>
       </c>
@@ -5223,10 +5247,10 @@
       <c r="A176" s="9">
         <v>172</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29" t="s">
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -5242,10 +5266,10 @@
       <c r="A177" s="9">
         <v>173</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
       <c r="F177" s="6" t="s">
         <v>192</v>
       </c>
@@ -5259,10 +5283,10 @@
       <c r="A178" s="9">
         <v>174</v>
       </c>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
       <c r="F178" s="6" t="s">
         <v>269</v>
       </c>
@@ -5278,10 +5302,10 @@
       <c r="A179" s="9">
         <v>175</v>
       </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
       <c r="F179" s="6" t="s">
         <v>53</v>
       </c>
@@ -5297,10 +5321,10 @@
       <c r="A180" s="9">
         <v>176</v>
       </c>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
       <c r="F180" s="6" t="s">
         <v>274</v>
       </c>
@@ -5316,12 +5340,12 @@
       <c r="A181" s="9">
         <v>177</v>
       </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29" t="s">
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E181" s="29" t="s">
+      <c r="E181" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -5337,10 +5361,10 @@
       <c r="A182" s="9">
         <v>178</v>
       </c>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
       <c r="F182" s="6" t="s">
         <v>265</v>
       </c>
@@ -5354,10 +5378,10 @@
       <c r="A183" s="9">
         <v>179</v>
       </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
       <c r="F183" s="6" t="s">
         <v>267</v>
       </c>
@@ -5373,10 +5397,10 @@
       <c r="A184" s="9">
         <v>180</v>
       </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
       <c r="F184" s="6" t="s">
         <v>83</v>
       </c>
@@ -5392,10 +5416,10 @@
       <c r="A185" s="9">
         <v>181</v>
       </c>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29" t="s">
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -5411,10 +5435,10 @@
       <c r="A186" s="9">
         <v>182</v>
       </c>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
       <c r="F186" s="6" t="s">
         <v>192</v>
       </c>
@@ -5428,10 +5452,10 @@
       <c r="A187" s="9">
         <v>183</v>
       </c>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
       <c r="F187" s="6" t="s">
         <v>269</v>
       </c>
@@ -5447,10 +5471,10 @@
       <c r="A188" s="9">
         <v>184</v>
       </c>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
       <c r="F188" s="6" t="s">
         <v>53</v>
       </c>
@@ -5466,10 +5490,10 @@
       <c r="A189" s="9">
         <v>185</v>
       </c>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
       <c r="F189" s="6" t="s">
         <v>274</v>
       </c>
@@ -5485,11 +5509,11 @@
       <c r="A190" s="9">
         <v>186</v>
       </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29" t="s">
+      <c r="B190" s="23"/>
+      <c r="C190" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="24" t="s">
         <v>280</v>
       </c>
       <c r="E190" s="6" t="s">
@@ -5500,67 +5524,59 @@
       <c r="H190" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I190" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I190" s="11"/>
     </row>
     <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>187</v>
       </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="27"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="33"/>
       <c r="E191" s="6" t="s">
         <v>283</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>188</v>
       </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="27"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="33"/>
       <c r="E192" s="6" t="s">
         <v>284</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I192" s="11"/>
     </row>
     <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>189</v>
       </c>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="28"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>190</v>
       </c>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
       <c r="D194" s="6" t="s">
         <v>286</v>
       </c>
@@ -5568,16 +5584,14 @@
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>191</v>
       </c>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
       <c r="D195" s="6" t="s">
         <v>288</v>
       </c>
@@ -5585,16 +5599,14 @@
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
         <v>192</v>
       </c>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="23"/>
       <c r="D196" s="6" t="s">
         <v>273</v>
       </c>
@@ -5604,16 +5616,14 @@
       <c r="H196" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I196" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>193</v>
       </c>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29" t="s">
+      <c r="B197" s="23"/>
+      <c r="C197" s="23" t="s">
         <v>287</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -5633,8 +5643,8 @@
       <c r="A198" s="9">
         <v>194</v>
       </c>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
       <c r="D198" s="6" t="s">
         <v>291</v>
       </c>
@@ -5652,8 +5662,8 @@
       <c r="A199" s="9">
         <v>195</v>
       </c>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
       <c r="D199" s="6" t="s">
         <v>68</v>
       </c>
@@ -5669,8 +5679,8 @@
       <c r="A200" s="9">
         <v>196</v>
       </c>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
       <c r="D200" s="6" t="s">
         <v>293</v>
       </c>
@@ -5686,11 +5696,11 @@
       <c r="A201" s="9">
         <v>197</v>
       </c>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29" t="s">
+      <c r="B201" s="23"/>
+      <c r="C201" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D201" s="29" t="s">
+      <c r="D201" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E201" s="6" t="s">
@@ -5709,9 +5719,9 @@
       <c r="A202" s="9">
         <v>198</v>
       </c>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
       <c r="E202" s="6" t="s">
         <v>296</v>
       </c>
@@ -5726,8 +5736,8 @@
       <c r="A203" s="9">
         <v>199</v>
       </c>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
       <c r="D203" s="6" t="s">
         <v>298</v>
       </c>
@@ -5743,8 +5753,8 @@
       <c r="A204" s="9">
         <v>200</v>
       </c>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
       <c r="D204" s="6" t="s">
         <v>299</v>
       </c>
@@ -5760,8 +5770,8 @@
       <c r="A205" s="9">
         <v>201</v>
       </c>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
       <c r="D205" s="6" t="s">
         <v>300</v>
       </c>
@@ -5777,14 +5787,14 @@
       <c r="A206" s="9">
         <v>202</v>
       </c>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29" t="s">
+      <c r="B206" s="23"/>
+      <c r="C206" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="E206" s="29" t="s">
+      <c r="E206" s="23" t="s">
         <v>303</v>
       </c>
       <c r="F206" s="6" t="s">
@@ -5802,10 +5812,10 @@
       <c r="A207" s="9">
         <v>203</v>
       </c>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
       <c r="F207" s="6" t="s">
         <v>305</v>
       </c>
@@ -5819,10 +5829,10 @@
       <c r="A208" s="9">
         <v>204</v>
       </c>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
       <c r="F208" s="6" t="s">
         <v>306</v>
       </c>
@@ -5836,10 +5846,10 @@
       <c r="A209" s="9">
         <v>205</v>
       </c>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
       <c r="F209" s="6" t="s">
         <v>307</v>
       </c>
@@ -5853,9 +5863,9 @@
       <c r="A210" s="9">
         <v>206</v>
       </c>
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
       <c r="E210" s="6" t="s">
         <v>309</v>
       </c>
@@ -5870,9 +5880,9 @@
       <c r="A211" s="9">
         <v>207</v>
       </c>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
       <c r="E211" s="6" t="s">
         <v>310</v>
       </c>
@@ -5885,9 +5895,9 @@
       <c r="A212" s="9">
         <v>208</v>
       </c>
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29" t="s">
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23" t="s">
         <v>312</v>
       </c>
       <c r="E212" s="6" t="s">
@@ -5904,9 +5914,9 @@
       <c r="A213" s="9">
         <v>209</v>
       </c>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="6" t="s">
         <v>116</v>
       </c>
@@ -5921,9 +5931,9 @@
       <c r="A214" s="9">
         <v>210</v>
       </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
       <c r="E214" s="6" t="s">
         <v>68</v>
       </c>
@@ -5940,12 +5950,12 @@
       <c r="A215" s="9">
         <v>211</v>
       </c>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29" t="s">
+      <c r="B215" s="23"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E215" s="29" t="s">
+      <c r="E215" s="23" t="s">
         <v>316</v>
       </c>
       <c r="F215" s="6" t="s">
@@ -5963,10 +5973,10 @@
       <c r="A216" s="9">
         <v>212</v>
       </c>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
       <c r="F216" s="6" t="s">
         <v>113</v>
       </c>
@@ -5980,10 +5990,10 @@
       <c r="A217" s="9">
         <v>213</v>
       </c>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
       <c r="F217" s="6" t="s">
         <v>68</v>
       </c>
@@ -5997,10 +6007,10 @@
       <c r="A218" s="9">
         <v>214</v>
       </c>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29" t="s">
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23" t="s">
         <v>318</v>
       </c>
       <c r="F218" s="6" t="s">
@@ -6014,10 +6024,10 @@
       <c r="A219" s="9">
         <v>215</v>
       </c>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
       <c r="F219" s="6" t="s">
         <v>68</v>
       </c>
@@ -6029,10 +6039,10 @@
       <c r="A220" s="9">
         <v>216</v>
       </c>
-      <c r="B220" s="29"/>
-      <c r="C220" s="29"/>
-      <c r="D220" s="29"/>
-      <c r="E220" s="29"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
       <c r="F220" s="6" t="s">
         <v>231</v>
       </c>
@@ -6046,10 +6056,10 @@
       <c r="A221" s="9">
         <v>217</v>
       </c>
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="29" t="s">
+      <c r="B221" s="23"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23" t="s">
         <v>322</v>
       </c>
       <c r="F221" s="6" t="s">
@@ -6065,10 +6075,10 @@
       <c r="A222" s="9">
         <v>218</v>
       </c>
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
       <c r="F222" s="6" t="s">
         <v>321</v>
       </c>
@@ -6080,11 +6090,11 @@
       <c r="A223" s="9">
         <v>219</v>
       </c>
-      <c r="B223" s="29"/>
-      <c r="C223" s="29" t="s">
+      <c r="B223" s="23"/>
+      <c r="C223" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="D223" s="29" t="s">
+      <c r="D223" s="23" t="s">
         <v>324</v>
       </c>
       <c r="E223" s="6" t="s">
@@ -6101,9 +6111,9 @@
       <c r="A224" s="9">
         <v>220</v>
       </c>
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
       <c r="E224" s="6" t="s">
         <v>113</v>
       </c>
@@ -6116,9 +6126,9 @@
       <c r="A225" s="9">
         <v>221</v>
       </c>
-      <c r="B225" s="29"/>
-      <c r="C225" s="29"/>
-      <c r="D225" s="29" t="s">
+      <c r="B225" s="23"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23" t="s">
         <v>325</v>
       </c>
       <c r="E225" s="6" t="s">
@@ -6133,9 +6143,9 @@
       <c r="A226" s="9">
         <v>222</v>
       </c>
-      <c r="B226" s="29"/>
-      <c r="C226" s="29"/>
-      <c r="D226" s="29"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="6" t="s">
         <v>327</v>
       </c>
@@ -6148,9 +6158,9 @@
       <c r="A227" s="9">
         <v>223</v>
       </c>
-      <c r="B227" s="29"/>
-      <c r="C227" s="29"/>
-      <c r="D227" s="29"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
       <c r="E227" s="6" t="s">
         <v>230</v>
       </c>
@@ -6165,9 +6175,9 @@
       <c r="A228" s="9">
         <v>224</v>
       </c>
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="29"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
       <c r="E228" s="6" t="s">
         <v>329</v>
       </c>
@@ -6180,9 +6190,9 @@
       <c r="A229" s="9">
         <v>225</v>
       </c>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29" t="s">
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23" t="s">
         <v>330</v>
       </c>
       <c r="E229" s="6" t="s">
@@ -6197,9 +6207,9 @@
       <c r="A230" s="9">
         <v>226</v>
       </c>
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
       <c r="E230" s="6" t="s">
         <v>332</v>
       </c>
@@ -6212,9 +6222,9 @@
       <c r="A231" s="9">
         <v>227</v>
       </c>
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
       <c r="E231" s="6" t="s">
         <v>333</v>
       </c>
@@ -6227,11 +6237,11 @@
       <c r="A232" s="9">
         <v>228</v>
       </c>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29" t="s">
+      <c r="B232" s="23"/>
+      <c r="C232" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D232" s="29" t="s">
+      <c r="D232" s="23" t="s">
         <v>336</v>
       </c>
       <c r="E232" s="6" t="s">
@@ -6246,9 +6256,9 @@
       <c r="A233" s="9">
         <v>229</v>
       </c>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
       <c r="E233" s="6" t="s">
         <v>68</v>
       </c>
@@ -6263,9 +6273,9 @@
       <c r="A234" s="9">
         <v>230</v>
       </c>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
       <c r="E234" s="6" t="s">
         <v>113</v>
       </c>
@@ -6282,9 +6292,9 @@
       <c r="A235" s="9">
         <v>231</v>
       </c>
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29" t="s">
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23" t="s">
         <v>339</v>
       </c>
       <c r="E235" s="6" t="s">
@@ -6303,9 +6313,9 @@
       <c r="A236" s="9">
         <v>232</v>
       </c>
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
       <c r="E236" s="6" t="s">
         <v>68</v>
       </c>
@@ -6320,9 +6330,9 @@
       <c r="A237" s="9">
         <v>233</v>
       </c>
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
       <c r="E237" s="6" t="s">
         <v>113</v>
       </c>
@@ -6337,9 +6347,9 @@
       <c r="A238" s="9">
         <v>234</v>
       </c>
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
-      <c r="D238" s="29" t="s">
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23" t="s">
         <v>340</v>
       </c>
       <c r="E238" s="6" t="s">
@@ -6358,9 +6368,9 @@
       <c r="A239" s="9">
         <v>235</v>
       </c>
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
       <c r="E239" s="6" t="s">
         <v>68</v>
       </c>
@@ -6375,9 +6385,9 @@
       <c r="A240" s="9">
         <v>236</v>
       </c>
-      <c r="B240" s="29"/>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
       <c r="E240" s="6" t="s">
         <v>113</v>
       </c>
@@ -6392,9 +6402,9 @@
       <c r="A241" s="9">
         <v>237</v>
       </c>
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="29" t="s">
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23" t="s">
         <v>342</v>
       </c>
       <c r="E241" s="6" t="s">
@@ -6411,9 +6421,9 @@
       <c r="A242" s="9">
         <v>238</v>
       </c>
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
       <c r="E242" s="6" t="s">
         <v>344</v>
       </c>
@@ -6428,9 +6438,9 @@
       <c r="A243" s="9">
         <v>239</v>
       </c>
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
       <c r="E243" s="6" t="s">
         <v>345</v>
       </c>
@@ -6447,9 +6457,9 @@
       <c r="A244" s="9">
         <v>240</v>
       </c>
-      <c r="B244" s="30"/>
-      <c r="C244" s="30"/>
-      <c r="D244" s="30"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
       <c r="E244" s="12" t="s">
         <v>347</v>
       </c>
@@ -6464,94 +6474,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="C201:C205"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="C47:C61"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="C10:C27"/>
-    <mergeCell ref="D11:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C62:C82"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="D88:D95"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="E125:E133"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="D101:D108"/>
-    <mergeCell ref="F116:F120"/>
-    <mergeCell ref="E109:E122"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D109:D124"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="E151:E154"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="D151:D157"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="C190:C196"/>
-    <mergeCell ref="D125:D136"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C83:C144"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="E185:E189"/>
-    <mergeCell ref="C172:C189"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="F162:F166"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="E158:E168"/>
-    <mergeCell ref="E169:E171"/>
-    <mergeCell ref="D158:D171"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="D238:D240"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="D232:D234"/>
     <mergeCell ref="D241:D244"/>
     <mergeCell ref="C232:C244"/>
     <mergeCell ref="B28:B244"/>
@@ -6571,6 +6493,94 @@
     <mergeCell ref="E176:E180"/>
     <mergeCell ref="E172:E175"/>
     <mergeCell ref="D172:D180"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="F162:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="E158:E168"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="D158:D171"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="D238:D240"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E151:E154"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="D151:D157"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C190:C196"/>
+    <mergeCell ref="D125:D136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C83:C144"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="E185:E189"/>
+    <mergeCell ref="C172:C189"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="D101:D108"/>
+    <mergeCell ref="F116:F120"/>
+    <mergeCell ref="E109:E122"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D109:D124"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="E125:E133"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="C10:C27"/>
+    <mergeCell ref="D11:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C28:C41"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="C47:C61"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C62:C82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E77:E78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
